--- a/experiments/optics-ajk/instructor-large/0.2/prediction.xlsx
+++ b/experiments/optics-ajk/instructor-large/0.2/prediction.xlsx
@@ -468,47 +468,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,27 +538,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,27 +578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,57 +608,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,37 +698,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,107 +738,107 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,67 +848,67 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,107 +958,107 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,57 +1078,57 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,17 +1218,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,97 +1238,97 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,117 +1338,117 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,37 +1468,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,47 +1508,47 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,17 +1578,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,17 +1718,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,17 +1748,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,47 +1778,47 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,57 +1838,57 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,57 +1908,57 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,17 +1968,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,27 +1988,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,37 +2038,37 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,37 +2088,37 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,17 +2128,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,117 +2148,117 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,87 +2278,87 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,67 +2368,67 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,3831 +2438,3831 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>122</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>127</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>106</v>
+        <v>35</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>109</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>19</v>
+        <v>136</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>132</v>
+        <v>51</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>132</v>
+        <v>64</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>131</v>
+        <v>64</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>131</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>131</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>128</v>
+        <v>51</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>141</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>141</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>64</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>66</v>
+        <v>140</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>133</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>112</v>
+        <v>53</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>112</v>
+        <v>51</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>129</v>
+        <v>68</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>129</v>
+        <v>68</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>123</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>144</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>144</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>108</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>50</v>
+        <v>119</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>135</v>
+        <v>38</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>135</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>136</v>
+        <v>34</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>136</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>136</v>
+        <v>47</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>138</v>
+        <v>47</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>134</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>137</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>137</v>
+        <v>20</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>140</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>143</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>143</v>
+        <v>50</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>120</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>120</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>120</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>120</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>24</v>
+        <v>124</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>24</v>
+        <v>124</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>90</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>119</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>119</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>69</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>56</v>
+        <v>146</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>56</v>
+        <v>146</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>78</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>82</v>
+        <v>143</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>139</v>
+        <v>59</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>72</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>142</v>
+        <v>51</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>146</v>
+        <v>67</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>146</v>
+        <v>78</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>126</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>126</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="584">
